--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc203_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5152" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1237,10 +1261,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="3" t="s">
+      <c r="J38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1284,28 +1308,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="3">
+      <c r="A40" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="3">
+      <c r="C40" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1330,28 +1354,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="3">
+      <c r="B42" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="3">
+      <c r="C42" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="3">
+      <c r="D42" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="3">
+      <c r="E42" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="3">
+      <c r="F42" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="3">
+      <c r="G42" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="3">
+      <c r="H42" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="3">
+      <c r="I42" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1555,10 +1579,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="3" t="s">
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1602,28 +1626,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="3">
+      <c r="A51" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="3">
+      <c r="C51" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1648,28 +1672,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="3">
+      <c r="I53" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1844,10 +1868,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="3" t="s">
+      <c r="J59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1891,28 +1915,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="3">
+      <c r="A61" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="3">
+      <c r="C61" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1937,28 +1961,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="3">
+      <c r="C63" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="3">
+      <c r="D63" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="3">
+      <c r="I63" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2017,10 +2041,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="3" t="s">
+      <c r="J65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2064,28 +2088,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="3">
+      <c r="A67" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="3">
+      <c r="B67" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="3">
+      <c r="C67" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="3">
+      <c r="F67" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="3">
+      <c r="G67" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="3">
+      <c r="H67" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2110,28 +2134,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="3">
+      <c r="B69" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="3">
+      <c r="C69" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="3">
+      <c r="D69" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="3">
+      <c r="F69" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="3">
+      <c r="G69" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="3">
+      <c r="H69" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="3">
+      <c r="I69" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2190,10 +2214,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="3" t="s">
+      <c r="J71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2237,28 +2261,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="3">
+      <c r="A73" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="3">
+      <c r="C73" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2283,28 +2307,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="C75" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="3">
+      <c r="D75" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="3">
+      <c r="I75" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2363,10 +2387,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="3" t="s">
+      <c r="J77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2410,28 +2434,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="3">
+      <c r="A79" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="3">
+      <c r="C79" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2456,28 +2480,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="3">
+      <c r="B81" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="3">
+      <c r="C81" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="3">
+      <c r="D81" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="3">
+      <c r="F81" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="3">
+      <c r="G81" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="3">
+      <c r="H81" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="3">
+      <c r="I81" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2536,10 +2560,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="J83" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2583,28 +2607,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="3">
+      <c r="A85" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="3">
+      <c r="B85" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="3">
+      <c r="C85" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="3">
+      <c r="E85" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="3">
+      <c r="F85" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="3">
+      <c r="G85" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="3">
+      <c r="H85" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2629,28 +2653,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="3">
+      <c r="C87" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="3">
+      <c r="D87" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="3">
+      <c r="I87" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2709,10 +2733,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="3" t="s">
+      <c r="J89" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2756,28 +2780,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="3">
+      <c r="A91" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="3">
+      <c r="B91" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="3">
+      <c r="C91" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="3">
+      <c r="F91" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="3">
+      <c r="G91" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="3">
+      <c r="H91" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2802,28 +2826,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="3">
+      <c r="C93" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="3">
+      <c r="D93" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="3">
+      <c r="I93" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2882,10 +2906,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="3" t="s">
+      <c r="J95" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2929,28 +2953,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="3">
+      <c r="A97" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="3">
+      <c r="B97" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="3">
+      <c r="C97" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="3">
+      <c r="E97" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="3">
+      <c r="F97" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="3">
+      <c r="G97" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="3">
+      <c r="H97" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2975,28 +2999,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="3">
+      <c r="C99" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="3">
+      <c r="D99" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="3">
+      <c r="I99" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3055,10 +3079,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="3" t="s">
+      <c r="J101" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3102,28 +3126,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="3">
+      <c r="A103" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="3">
+      <c r="C103" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3148,28 +3172,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="3">
+      <c r="B105" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="3">
+      <c r="C105" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="3">
+      <c r="D105" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="3">
+      <c r="E105" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="3">
+      <c r="F105" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="3">
+      <c r="G105" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="3">
+      <c r="H105" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="3">
+      <c r="I105" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3228,10 +3252,10 @@
       <c r="I107">
         <f>((C107-C106)^2+(D107- D106)^2)^.5</f>
       </c>
-      <c r="J107" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K107" s="3" t="s">
+      <c r="J107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L107" t="n">
@@ -3275,28 +3299,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="3">
+      <c r="A109" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B109" t="s" s="3">
+      <c r="B109" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C109" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D109" t="s" s="3">
+      <c r="C109" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D109" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E109" t="s" s="3">
+      <c r="E109" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F109" t="s" s="3">
+      <c r="F109" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G109" t="s" s="3">
+      <c r="G109" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H109" t="s" s="3">
+      <c r="H109" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3321,28 +3345,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I111" t="s" s="3">
+      <c r="I111" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3401,10 +3425,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="3" t="s">
+      <c r="J113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3448,28 +3472,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="A115" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="3">
+      <c r="C115" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3494,28 +3518,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="3">
+      <c r="I117" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3574,10 +3598,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="3" t="s">
+      <c r="J119" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3621,28 +3645,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="3">
+      <c r="A121" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="3">
+      <c r="B121" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="3">
+      <c r="C121" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="3">
+      <c r="F121" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="3">
+      <c r="G121" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="3">
+      <c r="H121" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3667,28 +3691,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="3">
+      <c r="C123" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="3">
+      <c r="D123" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="3">
+      <c r="I123" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3747,10 +3771,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="3" t="s">
+      <c r="J125" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3794,28 +3818,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="3">
+      <c r="A127" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="3">
+      <c r="B127" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="3">
+      <c r="C127" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="3">
+      <c r="E127" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="3">
+      <c r="F127" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="3">
+      <c r="G127" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="3">
+      <c r="H127" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3840,28 +3864,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="3">
+      <c r="C129" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="3">
+      <c r="D129" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="3">
+      <c r="I129" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3920,10 +3944,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="3" t="s">
+      <c r="J131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3967,28 +3991,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="3">
+      <c r="A133" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="3">
+      <c r="B133" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="3">
+      <c r="C133" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="3">
+      <c r="E133" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="3">
+      <c r="F133" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="3">
+      <c r="G133" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="3">
+      <c r="H133" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4013,28 +4037,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="3">
+      <c r="B135" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="3">
+      <c r="C135" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="3">
+      <c r="D135" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="3">
+      <c r="E135" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="3">
+      <c r="F135" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="3">
+      <c r="G135" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="3">
+      <c r="H135" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="3">
+      <c r="I135" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4093,10 +4117,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="3" t="s">
+      <c r="J137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4140,28 +4164,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="3">
+      <c r="A139" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="3">
+      <c r="C139" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4186,28 +4210,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="3">
+      <c r="I141" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4266,10 +4290,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="3" t="s">
+      <c r="J143" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4313,28 +4337,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="3">
+      <c r="A145" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="3">
+      <c r="C145" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4359,28 +4383,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="3">
+      <c r="C147" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="3">
+      <c r="D147" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="3">
+      <c r="I147" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4439,10 +4463,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="3" t="s">
+      <c r="J149" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4486,28 +4510,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="3">
+      <c r="A151" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="3">
+      <c r="C151" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4532,28 +4556,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="3">
+      <c r="C153" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="3">
+      <c r="D153" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="3">
+      <c r="I153" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4612,10 +4636,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="3" t="s">
+      <c r="J155" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4659,28 +4683,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="3">
+      <c r="A157" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="3">
+      <c r="B157" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="3">
+      <c r="C157" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="3">
+      <c r="E157" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="3">
+      <c r="F157" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="3">
+      <c r="G157" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="3">
+      <c r="H157" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4705,28 +4729,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="3">
+      <c r="B159" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="3">
+      <c r="C159" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="3">
+      <c r="D159" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="3">
+      <c r="E159" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="3">
+      <c r="F159" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="3">
+      <c r="G159" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="3">
+      <c r="H159" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="3">
+      <c r="I159" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4785,10 +4809,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="3" t="s">
+      <c r="J161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4832,28 +4856,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="3">
+      <c r="A163" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="3">
+      <c r="B163" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="3">
+      <c r="C163" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="3">
+      <c r="E163" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="3">
+      <c r="F163" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="3">
+      <c r="G163" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="3">
+      <c r="H163" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4878,28 +4902,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="3">
+      <c r="B165" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="3">
+      <c r="C165" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="3">
+      <c r="D165" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="3">
+      <c r="E165" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="3">
+      <c r="F165" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="3">
+      <c r="G165" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="3">
+      <c r="H165" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="3">
+      <c r="I165" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4958,10 +4982,10 @@
       <c r="I167">
         <f>((C167-C166)^2+(D167- D166)^2)^.5</f>
       </c>
-      <c r="J167" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K167" s="3" t="s">
+      <c r="J167" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L167" t="n">
@@ -5005,28 +5029,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="3">
+      <c r="A169" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C169" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D169" t="s" s="3">
+      <c r="C169" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5051,28 +5075,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" t="s" s="3">
+      <c r="B171" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C171" t="s" s="3">
+      <c r="C171" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D171" t="s" s="3">
+      <c r="D171" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E171" t="s" s="3">
+      <c r="E171" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F171" t="s" s="3">
+      <c r="F171" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G171" t="s" s="3">
+      <c r="G171" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H171" t="s" s="3">
+      <c r="H171" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I171" t="s" s="3">
+      <c r="I171" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5131,10 +5155,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="3" t="s">
+      <c r="J173" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5178,28 +5202,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="3">
+      <c r="A175" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="3">
+      <c r="C175" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5224,28 +5248,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="3">
+      <c r="C177" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="3">
+      <c r="D177" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="3">
+      <c r="I177" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5304,10 +5328,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="3" t="s">
+      <c r="J179" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5351,28 +5375,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="3">
+      <c r="A181" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="3">
+      <c r="C181" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5397,28 +5421,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="3">
+      <c r="B183" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="3">
+      <c r="C183" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="3">
+      <c r="D183" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="3">
+      <c r="E183" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="3">
+      <c r="F183" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="3">
+      <c r="G183" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="3">
+      <c r="H183" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="3">
+      <c r="I183" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5477,10 +5501,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="3" t="s">
+      <c r="J185" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5524,28 +5548,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="3">
+      <c r="A187" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="3">
+      <c r="C187" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5570,28 +5594,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="3">
+      <c r="B189" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="3">
+      <c r="C189" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="3">
+      <c r="D189" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="3">
+      <c r="E189" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="3">
+      <c r="F189" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="3">
+      <c r="G189" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="3">
+      <c r="H189" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="3">
+      <c r="I189" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6201,10 +6225,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="3" t="s">
+      <c r="J210" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6248,28 +6272,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="3">
+      <c r="A212" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="3">
+      <c r="B212" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="3">
+      <c r="C212" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="3">
+      <c r="E212" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="3">
+      <c r="F212" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="3">
+      <c r="G212" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="3">
+      <c r="H212" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6294,28 +6318,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="3">
+      <c r="C214" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="3">
+      <c r="D214" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="3">
+      <c r="I214" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6374,10 +6398,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="3" t="s">
+      <c r="J216" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6421,28 +6445,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="3">
+      <c r="A218" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="3">
+      <c r="B218" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="3">
+      <c r="C218" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="3">
+      <c r="E218" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="3">
+      <c r="F218" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="3">
+      <c r="G218" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="3">
+      <c r="H218" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6467,28 +6491,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="3">
+      <c r="B220" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="3">
+      <c r="C220" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="3">
+      <c r="D220" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="3">
+      <c r="E220" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="3">
+      <c r="F220" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="3">
+      <c r="G220" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="3">
+      <c r="H220" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="3">
+      <c r="I220" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6547,10 +6571,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="3" t="s">
+      <c r="J222" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6594,28 +6618,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="3">
+      <c r="A224" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="3">
+      <c r="B224" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="3">
+      <c r="C224" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="3">
+      <c r="E224" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="3">
+      <c r="F224" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="3">
+      <c r="G224" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="3">
+      <c r="H224" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6640,28 +6664,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="3">
+      <c r="B226" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="3">
+      <c r="C226" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="3">
+      <c r="D226" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="3">
+      <c r="E226" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="3">
+      <c r="F226" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="3">
+      <c r="G226" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="3">
+      <c r="H226" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="3">
+      <c r="I226" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6720,10 +6744,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="3" t="s">
+      <c r="J228" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6767,28 +6791,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="3">
+      <c r="A230" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="3">
+      <c r="B230" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="3">
+      <c r="C230" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="3">
+      <c r="E230" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="3">
+      <c r="F230" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="3">
+      <c r="G230" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="3">
+      <c r="H230" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6813,28 +6837,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="3">
+      <c r="B232" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="3">
+      <c r="C232" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="3">
+      <c r="D232" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="3">
+      <c r="E232" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="3">
+      <c r="F232" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="3">
+      <c r="G232" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="3">
+      <c r="H232" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="3">
+      <c r="I232" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6893,10 +6917,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="3" t="s">
+      <c r="J234" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6940,28 +6964,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="3">
+      <c r="A236" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="3">
+      <c r="B236" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="3">
+      <c r="C236" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="3">
+      <c r="E236" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="3">
+      <c r="F236" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="3">
+      <c r="G236" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="3">
+      <c r="H236" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6986,28 +7010,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="3">
+      <c r="B238" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="3">
+      <c r="C238" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="3">
+      <c r="D238" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="3">
+      <c r="E238" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="3">
+      <c r="F238" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="3">
+      <c r="G238" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="3">
+      <c r="H238" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="3">
+      <c r="I238" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7066,10 +7090,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="3" t="s">
+      <c r="J240" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7113,28 +7137,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="3">
+      <c r="A242" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="3">
+      <c r="C242" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7159,28 +7183,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="3">
+      <c r="B244" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="3">
+      <c r="C244" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="3">
+      <c r="D244" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="3">
+      <c r="E244" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="3">
+      <c r="F244" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="3">
+      <c r="G244" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="3">
+      <c r="H244" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="3">
+      <c r="I244" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7239,10 +7263,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="3" t="s">
+      <c r="J246" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7286,28 +7310,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="3">
+      <c r="A248" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="3">
+      <c r="B248" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="3">
+      <c r="C248" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="3">
+      <c r="E248" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="3">
+      <c r="F248" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="3">
+      <c r="G248" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="3">
+      <c r="H248" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7332,28 +7356,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="3">
+      <c r="B250" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="3">
+      <c r="C250" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="3">
+      <c r="D250" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="3">
+      <c r="E250" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="3">
+      <c r="F250" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="3">
+      <c r="G250" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="3">
+      <c r="H250" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="3">
+      <c r="I250" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7412,10 +7436,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="3" t="s">
+      <c r="J252" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7459,28 +7483,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="3">
+      <c r="A254" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="3">
+      <c r="B254" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="3">
+      <c r="C254" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="3">
+      <c r="E254" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="3">
+      <c r="F254" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="3">
+      <c r="G254" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="3">
+      <c r="H254" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7505,28 +7529,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="3">
+      <c r="B256" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="3">
+      <c r="C256" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="3">
+      <c r="D256" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="3">
+      <c r="E256" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="3">
+      <c r="F256" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="3">
+      <c r="G256" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="3">
+      <c r="H256" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="3">
+      <c r="I256" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7585,10 +7609,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="3" t="s">
+      <c r="J258" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7632,28 +7656,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="3">
+      <c r="A260" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="3">
+      <c r="B260" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="3">
+      <c r="C260" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="3">
+      <c r="E260" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="3">
+      <c r="F260" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="3">
+      <c r="G260" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="3">
+      <c r="H260" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7678,28 +7702,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="3">
+      <c r="B262" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="3">
+      <c r="C262" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="3">
+      <c r="D262" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="3">
+      <c r="E262" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="3">
+      <c r="F262" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="3">
+      <c r="G262" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="3">
+      <c r="H262" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="3">
+      <c r="I262" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7758,10 +7782,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="3" t="s">
+      <c r="J264" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7805,28 +7829,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="3">
+      <c r="A266" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="3">
+      <c r="B266" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="3">
+      <c r="C266" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="3">
+      <c r="E266" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="3">
+      <c r="F266" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="3">
+      <c r="G266" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="3">
+      <c r="H266" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7851,28 +7875,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="3">
+      <c r="B268" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="3">
+      <c r="C268" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="3">
+      <c r="D268" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="3">
+      <c r="E268" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="3">
+      <c r="F268" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="3">
+      <c r="G268" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="3">
+      <c r="H268" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="3">
+      <c r="I268" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7960,10 +7984,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="3" t="s">
+      <c r="J271" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
@@ -8007,28 +8031,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="s" s="3">
+      <c r="A273" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B273" t="s" s="3">
+      <c r="B273" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C273" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D273" t="s" s="3">
+      <c r="C273" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D273" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E273" t="s" s="3">
+      <c r="E273" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F273" t="s" s="3">
+      <c r="F273" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G273" t="s" s="3">
+      <c r="G273" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H273" t="s" s="3">
+      <c r="H273" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8053,28 +8077,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="B275" t="s" s="3">
+      <c r="B275" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C275" t="s" s="3">
+      <c r="C275" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D275" t="s" s="3">
+      <c r="D275" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E275" t="s" s="3">
+      <c r="E275" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F275" t="s" s="3">
+      <c r="F275" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G275" t="s" s="3">
+      <c r="G275" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H275" t="s" s="3">
+      <c r="H275" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I275" t="s" s="3">
+      <c r="I275" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8133,10 +8157,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="3" t="s">
+      <c r="J277" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8180,28 +8204,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="3">
+      <c r="A279" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="3">
+      <c r="B279" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="3">
+      <c r="C279" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="3">
+      <c r="E279" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="3">
+      <c r="F279" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="3">
+      <c r="G279" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="3">
+      <c r="H279" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8226,28 +8250,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="3">
+      <c r="B281" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="3">
+      <c r="C281" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="3">
+      <c r="D281" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="3">
+      <c r="E281" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="3">
+      <c r="F281" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="3">
+      <c r="G281" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="3">
+      <c r="H281" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="3">
+      <c r="I281" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8306,10 +8330,10 @@
       <c r="I283">
         <f>((C283-C282)^2+(D283- D282)^2)^.5</f>
       </c>
-      <c r="J283" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K283" s="3" t="s">
+      <c r="J283" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K283" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L283" t="n">
@@ -8353,28 +8377,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="s" s="3">
+      <c r="A285" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B285" t="s" s="3">
+      <c r="B285" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C285" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D285" t="s" s="3">
+      <c r="C285" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D285" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E285" t="s" s="3">
+      <c r="E285" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F285" t="s" s="3">
+      <c r="F285" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G285" t="s" s="3">
+      <c r="G285" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H285" t="s" s="3">
+      <c r="H285" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8399,28 +8423,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="B287" t="s" s="3">
+      <c r="B287" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C287" t="s" s="3">
+      <c r="C287" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D287" t="s" s="3">
+      <c r="D287" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E287" t="s" s="3">
+      <c r="E287" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F287" t="s" s="3">
+      <c r="F287" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G287" t="s" s="3">
+      <c r="G287" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H287" t="s" s="3">
+      <c r="H287" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I287" t="s" s="3">
+      <c r="I287" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8479,10 +8503,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="3" t="s">
+      <c r="J289" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8526,28 +8550,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="3">
+      <c r="A291" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="3">
+      <c r="B291" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="3">
+      <c r="C291" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="3">
+      <c r="E291" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="3">
+      <c r="F291" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="3">
+      <c r="G291" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="3">
+      <c r="H291" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8572,28 +8596,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="3">
+      <c r="B293" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="3">
+      <c r="C293" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="3">
+      <c r="D293" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="3">
+      <c r="E293" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="3">
+      <c r="F293" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="3">
+      <c r="G293" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="3">
+      <c r="H293" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="3">
+      <c r="I293" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8652,10 +8676,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="3" t="s">
+      <c r="J295" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8699,28 +8723,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="3">
+      <c r="A297" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="3">
+      <c r="B297" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="3">
+      <c r="C297" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="3">
+      <c r="E297" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="3">
+      <c r="F297" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="3">
+      <c r="G297" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="3">
+      <c r="H297" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8745,28 +8769,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="3">
+      <c r="B299" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="3">
+      <c r="C299" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="3">
+      <c r="D299" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="3">
+      <c r="E299" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="3">
+      <c r="F299" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="3">
+      <c r="G299" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="3">
+      <c r="H299" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="3">
+      <c r="I299" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8825,10 +8849,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="3" t="s">
+      <c r="J301" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
